--- a/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Regresión lineal" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -588,27 +588,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="49084672"/>
-        <c:axId val="65007616"/>
+        <c:axId val="63237504"/>
+        <c:axId val="63317120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49084672"/>
+        <c:axId val="63237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65007616"/>
+        <c:crossAx val="63317120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65007616"/>
+        <c:axId val="63317120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +621,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49084672"/>
+        <c:crossAx val="63237504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -635,7 +634,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1054,12 +1053,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="95755648"/>
-        <c:axId val="95754112"/>
+        <c:axId val="64381312"/>
+        <c:axId val="64383232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95755648"/>
+        <c:axId val="64381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,12 +1084,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95754112"/>
+        <c:crossAx val="64383232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95754112"/>
+        <c:axId val="64383232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1116,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95755648"/>
+        <c:crossAx val="64381312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1127,7 +1125,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1145,10 +1143,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -5020,27 +5018,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="9931776"/>
-        <c:axId val="87538688"/>
+        <c:axId val="64436864"/>
+        <c:axId val="64442752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9931776"/>
+        <c:axId val="64436864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87538688"/>
+        <c:crossAx val="64442752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87538688"/>
+        <c:axId val="64442752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5051,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="9931776"/>
+        <c:crossAx val="64436864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5067,7 +5064,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8936,12 +8933,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="99420032"/>
-        <c:axId val="99418496"/>
+        <c:axId val="64479232"/>
+        <c:axId val="64481152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99420032"/>
+        <c:axId val="64479232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8949,16 +8945,31 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WW3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99418496"/>
+        <c:crossAx val="64481152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99418496"/>
+        <c:axId val="64481152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8966,11 +8977,26 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Observación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99420032"/>
+        <c:crossAx val="64479232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8979,7 +9005,992 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Altura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> de ola (metros)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WW3</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Crudo!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Observación</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Crudo!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="64686720"/>
+        <c:axId val="64696704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64686720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64696704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64696704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64686720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Crudo!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Crudo!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="64733568"/>
+        <c:axId val="64735488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64733568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WW3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64735488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64735488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Observación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64733568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9399,11 +10410,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75681792"/>
-        <c:axId val="75683712"/>
+        <c:axId val="63341696"/>
+        <c:axId val="63343616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75681792"/>
+        <c:axId val="63341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9430,12 +10441,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75683712"/>
+        <c:crossAx val="63343616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75683712"/>
+        <c:axId val="63343616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9467,7 +10478,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75681792"/>
+        <c:crossAx val="63341696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9476,7 +10487,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9494,10 +10505,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -9919,27 +10930,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="75330304"/>
-        <c:axId val="75331840"/>
+        <c:axId val="64110592"/>
+        <c:axId val="64112128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75330304"/>
+        <c:axId val="64110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75331840"/>
+        <c:crossAx val="64112128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75331840"/>
+        <c:axId val="64112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9953,7 +10963,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75330304"/>
+        <c:crossAx val="64110592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9966,7 +10976,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10386,12 +11396,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="84856832"/>
-        <c:axId val="87187456"/>
+        <c:axId val="64140416"/>
+        <c:axId val="64142336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84856832"/>
+        <c:axId val="64140416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10418,12 +11427,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87187456"/>
+        <c:crossAx val="64142336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87187456"/>
+        <c:axId val="64142336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10454,7 +11463,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84856832"/>
+        <c:crossAx val="64140416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10463,7 +11472,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10481,10 +11490,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -10906,27 +11915,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="50503680"/>
-        <c:axId val="50824704"/>
+        <c:axId val="64155008"/>
+        <c:axId val="64222720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50503680"/>
+        <c:axId val="64155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50824704"/>
+        <c:crossAx val="64222720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50824704"/>
+        <c:axId val="64222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10940,7 +11948,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50503680"/>
+        <c:crossAx val="64155008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10953,7 +11961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11373,12 +12381,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="88518016"/>
-        <c:axId val="88516480"/>
+        <c:axId val="64160896"/>
+        <c:axId val="64162816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88518016"/>
+        <c:axId val="64160896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11405,12 +12412,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88516480"/>
+        <c:crossAx val="64162816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88516480"/>
+        <c:axId val="64162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11437,7 +12444,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88518016"/>
+        <c:crossAx val="64160896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11446,7 +12453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -11464,10 +12471,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -11889,27 +12896,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="88649728"/>
-        <c:axId val="88884352"/>
+        <c:axId val="64195968"/>
+        <c:axId val="64267392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88649728"/>
+        <c:axId val="64195968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88884352"/>
+        <c:crossAx val="64267392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88884352"/>
+        <c:axId val="64267392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11923,7 +12929,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88649728"/>
+        <c:crossAx val="64195968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11936,7 +12942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12355,12 +13361,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="90641920"/>
-        <c:axId val="90640384"/>
+        <c:axId val="64291584"/>
+        <c:axId val="64293504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90641920"/>
+        <c:axId val="64291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12387,12 +13392,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90640384"/>
+        <c:crossAx val="64293504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90640384"/>
+        <c:axId val="64293504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12419,7 +13424,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90641920"/>
+        <c:crossAx val="64291584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12428,7 +13433,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -12446,10 +13451,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Altura de ola (metros)</a:t>
             </a:r>
           </a:p>
@@ -12871,27 +13876,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="90774528"/>
-        <c:axId val="90797184"/>
+        <c:axId val="64351232"/>
+        <c:axId val="64361216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90774528"/>
+        <c:axId val="64351232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90797184"/>
+        <c:crossAx val="64361216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90797184"/>
+        <c:axId val="64361216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12905,7 +13909,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90774528"/>
+        <c:crossAx val="64351232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12918,7 +13922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12934,8 +13938,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -12966,7 +13970,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13149,6 +14153,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13203,16 +14267,16 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09773</cdr:x>
-      <cdr:y>0.02834</cdr:y>
+      <cdr:x>0.10366</cdr:x>
+      <cdr:y>0.49538</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7762</cdr:x>
-      <cdr:y>0.85223</cdr:y>
+      <cdr:x>0.97256</cdr:x>
+      <cdr:y>0.86506</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -13221,8 +14285,59 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="657224" y="133350"/>
-          <a:ext cx="4562475" cy="3876675"/>
+          <a:off x="647700" y="2552701"/>
+          <a:ext cx="5429250" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0949</cdr:x>
+      <cdr:y>0.02834</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7762</cdr:x>
+      <cdr:y>0.87184</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="2 Conector recto"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="638176" y="149545"/>
+          <a:ext cx="4581498" cy="4451029"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -14041,8 +15156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15132,7 +16247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P21" sqref="P21:P26"/>
     </sheetView>
   </sheetViews>
@@ -15860,8 +16975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16588,7 +17703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -17315,7 +18430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -18042,8 +19157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H639"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
@@ -589,25 +589,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63237504"/>
-        <c:axId val="63317120"/>
+        <c:axId val="63106432"/>
+        <c:axId val="63513728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63237504"/>
+        <c:axId val="63106432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63317120"/>
+        <c:crossAx val="63513728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63317120"/>
+        <c:axId val="63513728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +621,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63237504"/>
+        <c:crossAx val="63106432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,7 +634,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,11 +1053,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64381312"/>
-        <c:axId val="64383232"/>
+        <c:axId val="64315776"/>
+        <c:axId val="64317696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64381312"/>
+        <c:axId val="64315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1084,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64383232"/>
+        <c:crossAx val="64317696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64383232"/>
+        <c:axId val="64317696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1116,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64381312"/>
+        <c:crossAx val="64315776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1125,7 +1125,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1152,7 +1152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5019,25 +5018,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64436864"/>
-        <c:axId val="64442752"/>
+        <c:axId val="64363136"/>
+        <c:axId val="64369024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64436864"/>
+        <c:axId val="64363136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64442752"/>
+        <c:crossAx val="64369024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64442752"/>
+        <c:axId val="64369024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,20 +5050,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64436864"/>
+        <c:crossAx val="64363136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8933,11 +8931,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64479232"/>
-        <c:axId val="64481152"/>
+        <c:axId val="64409600"/>
+        <c:axId val="64411520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64479232"/>
+        <c:axId val="64409600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8960,16 +8958,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64481152"/>
+        <c:crossAx val="64411520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64481152"/>
+        <c:axId val="64411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8992,11 +8989,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64479232"/>
+        <c:crossAx val="64409600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9005,7 +9001,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9037,7 +9033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9454,25 +9449,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64686720"/>
-        <c:axId val="64696704"/>
+        <c:axId val="64620416"/>
+        <c:axId val="64621952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64686720"/>
+        <c:axId val="64620416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64696704"/>
+        <c:crossAx val="64621952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64696704"/>
+        <c:axId val="64621952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9486,20 +9481,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64686720"/>
+        <c:crossAx val="64620416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9918,11 +9912,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64733568"/>
-        <c:axId val="64735488"/>
+        <c:axId val="64650240"/>
+        <c:axId val="64660608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64733568"/>
+        <c:axId val="64650240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9945,16 +9939,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64735488"/>
+        <c:crossAx val="64660608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64735488"/>
+        <c:axId val="64660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9977,11 +9970,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64733568"/>
+        <c:crossAx val="64650240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9990,7 +9982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10410,11 +10402,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63341696"/>
-        <c:axId val="63343616"/>
+        <c:axId val="63534208"/>
+        <c:axId val="63536128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63341696"/>
+        <c:axId val="63534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,12 +10433,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63343616"/>
+        <c:crossAx val="63536128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63343616"/>
+        <c:axId val="63536128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10478,7 +10470,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63341696"/>
+        <c:crossAx val="63534208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10487,7 +10479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10931,25 +10923,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64110592"/>
-        <c:axId val="64112128"/>
+        <c:axId val="63983616"/>
+        <c:axId val="63985152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64110592"/>
+        <c:axId val="63983616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64112128"/>
+        <c:crossAx val="63985152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64112128"/>
+        <c:axId val="63985152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10963,7 +10955,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64110592"/>
+        <c:crossAx val="63983616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10976,7 +10968,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11396,11 +11388,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64140416"/>
-        <c:axId val="64142336"/>
+        <c:axId val="64013440"/>
+        <c:axId val="64015360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64140416"/>
+        <c:axId val="64013440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11427,12 +11419,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64142336"/>
+        <c:crossAx val="64015360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64142336"/>
+        <c:axId val="64015360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11463,7 +11455,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64140416"/>
+        <c:crossAx val="64013440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11472,7 +11464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -11916,25 +11908,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64155008"/>
-        <c:axId val="64222720"/>
+        <c:axId val="64065920"/>
+        <c:axId val="64148992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64155008"/>
+        <c:axId val="64065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64222720"/>
+        <c:crossAx val="64148992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64222720"/>
+        <c:axId val="64148992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11948,7 +11940,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64155008"/>
+        <c:crossAx val="64065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11961,7 +11953,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12381,11 +12373,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64160896"/>
-        <c:axId val="64162816"/>
+        <c:axId val="64111744"/>
+        <c:axId val="64113664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64160896"/>
+        <c:axId val="64111744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12412,12 +12404,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64162816"/>
+        <c:crossAx val="64113664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64162816"/>
+        <c:axId val="64113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12444,7 +12436,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64160896"/>
+        <c:crossAx val="64111744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12453,7 +12445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -12897,25 +12889,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64195968"/>
-        <c:axId val="64267392"/>
+        <c:axId val="64134528"/>
+        <c:axId val="64201856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64195968"/>
+        <c:axId val="64134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64267392"/>
+        <c:crossAx val="64201856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64267392"/>
+        <c:axId val="64201856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12929,7 +12921,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64195968"/>
+        <c:crossAx val="64134528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12942,7 +12934,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13361,11 +13353,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64291584"/>
-        <c:axId val="64293504"/>
+        <c:axId val="64217856"/>
+        <c:axId val="64219776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64291584"/>
+        <c:axId val="64217856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13392,12 +13384,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64293504"/>
+        <c:crossAx val="64219776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64293504"/>
+        <c:axId val="64219776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13424,7 +13416,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64291584"/>
+        <c:crossAx val="64217856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13433,7 +13425,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -13877,25 +13869,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64351232"/>
-        <c:axId val="64361216"/>
+        <c:axId val="64285696"/>
+        <c:axId val="64295680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64351232"/>
+        <c:axId val="64285696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64361216"/>
+        <c:crossAx val="64295680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64361216"/>
+        <c:axId val="64295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13909,7 +13901,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64351232"/>
+        <c:crossAx val="64285696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13922,7 +13914,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14379,8 +14371,8 @@
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -14582,8 +14574,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -14692,14 +14684,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -14814,8 +14806,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -15156,7 +15148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -16247,8 +16239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16975,8 +16967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17703,8 +17695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18430,8 +18422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
+++ b/neuralito/ArfGen/docs/Entregas/5ta entrega - Evaluaciones/North Shore/NoBuoyStrategy[2003,2004]/North shore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Regresión lineal" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="SVM default" sheetId="4" r:id="rId4"/>
     <sheet name="SVM config" sheetId="5" r:id="rId5"/>
     <sheet name="Crudo" sheetId="6" r:id="rId6"/>
+    <sheet name="comparacion" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Correlation coefficient                  0.8588</t>
   </si>
@@ -107,6 +108,18 @@
   <si>
     <t>Error medio</t>
   </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>reg lineal</t>
+  </si>
+  <si>
+    <t>red neuronal</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
 </sst>
 </file>
 
@@ -589,25 +602,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63106432"/>
-        <c:axId val="63513728"/>
+        <c:axId val="54652288"/>
+        <c:axId val="55059584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63106432"/>
+        <c:axId val="54652288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63513728"/>
+        <c:crossAx val="55059584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63513728"/>
+        <c:axId val="55059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +634,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63106432"/>
+        <c:crossAx val="54652288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,7 +647,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,11 +1066,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64315776"/>
-        <c:axId val="64317696"/>
+        <c:axId val="55861632"/>
+        <c:axId val="55863552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64315776"/>
+        <c:axId val="55861632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1097,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64317696"/>
+        <c:crossAx val="55863552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64317696"/>
+        <c:axId val="55863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1129,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64315776"/>
+        <c:crossAx val="55861632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1125,7 +1138,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5018,25 +5031,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64363136"/>
-        <c:axId val="64369024"/>
+        <c:axId val="55908992"/>
+        <c:axId val="55914880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64363136"/>
+        <c:axId val="55908992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64369024"/>
+        <c:crossAx val="55914880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64369024"/>
+        <c:axId val="55914880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,7 +5063,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64363136"/>
+        <c:crossAx val="55908992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5062,7 +5075,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8931,11 +8944,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64409600"/>
-        <c:axId val="64411520"/>
+        <c:axId val="55951360"/>
+        <c:axId val="55953280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64409600"/>
+        <c:axId val="55951360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,12 +8974,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64411520"/>
+        <c:crossAx val="55953280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64411520"/>
+        <c:axId val="55953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8992,7 +9005,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64409600"/>
+        <c:crossAx val="55951360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9001,7 +9014,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9449,25 +9462,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64620416"/>
-        <c:axId val="64621952"/>
+        <c:axId val="56166272"/>
+        <c:axId val="56167808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64620416"/>
+        <c:axId val="56166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64621952"/>
+        <c:crossAx val="56167808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64621952"/>
+        <c:axId val="56167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9481,7 +9494,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64620416"/>
+        <c:crossAx val="56166272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9493,7 +9506,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9912,11 +9925,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64650240"/>
-        <c:axId val="64660608"/>
+        <c:axId val="56196096"/>
+        <c:axId val="56206464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64650240"/>
+        <c:axId val="56196096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9942,12 +9955,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64660608"/>
+        <c:crossAx val="56206464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64660608"/>
+        <c:axId val="56206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9973,7 +9986,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64650240"/>
+        <c:crossAx val="56196096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9982,10 +9995,924 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Altura de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>ola</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t> (metros)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37855083427371911"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observación</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>comparacion!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.973000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicción con Regresión Lineal</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>comparacion!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.877000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.7229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.6589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.202</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Predicción con Red Neuronal</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>comparacion!$C$2:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8729999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.862</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.577</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.556</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.194</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.823</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.887</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.097</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.069</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.234</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Predicción con Máquina de Soporte Vectorial</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>comparacion!$D$2:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3089999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.554</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.3479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.5309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.585</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.464</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.381</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="41146624"/>
+        <c:axId val="57737216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41146624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57737216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57737216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="41146624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -10402,11 +11329,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63534208"/>
-        <c:axId val="63536128"/>
+        <c:axId val="55080064"/>
+        <c:axId val="55081984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63534208"/>
+        <c:axId val="55080064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10433,12 +11360,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63536128"/>
+        <c:crossAx val="55081984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63536128"/>
+        <c:axId val="55081984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10470,7 +11397,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63534208"/>
+        <c:crossAx val="55080064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10479,7 +11406,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10923,25 +11850,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63983616"/>
-        <c:axId val="63985152"/>
+        <c:axId val="55525376"/>
+        <c:axId val="55526912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63983616"/>
+        <c:axId val="55525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63985152"/>
+        <c:crossAx val="55526912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63985152"/>
+        <c:axId val="55526912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10955,7 +11882,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63983616"/>
+        <c:crossAx val="55525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10968,7 +11895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11388,11 +12315,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64013440"/>
-        <c:axId val="64015360"/>
+        <c:axId val="55559296"/>
+        <c:axId val="55561216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64013440"/>
+        <c:axId val="55559296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11419,12 +12346,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64015360"/>
+        <c:crossAx val="55561216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64015360"/>
+        <c:axId val="55561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11455,7 +12382,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64013440"/>
+        <c:crossAx val="55559296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11464,7 +12391,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -11908,25 +12835,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64065920"/>
-        <c:axId val="64148992"/>
+        <c:axId val="55611776"/>
+        <c:axId val="55694848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64065920"/>
+        <c:axId val="55611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64148992"/>
+        <c:crossAx val="55694848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64148992"/>
+        <c:axId val="55694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11940,7 +12867,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64065920"/>
+        <c:crossAx val="55611776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11953,7 +12880,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12373,11 +13300,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64111744"/>
-        <c:axId val="64113664"/>
+        <c:axId val="55657600"/>
+        <c:axId val="55659520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64111744"/>
+        <c:axId val="55657600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12404,12 +13331,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64113664"/>
+        <c:crossAx val="55659520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64113664"/>
+        <c:axId val="55659520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12436,7 +13363,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64111744"/>
+        <c:crossAx val="55657600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12445,7 +13372,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -12889,25 +13816,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64134528"/>
-        <c:axId val="64201856"/>
+        <c:axId val="55680384"/>
+        <c:axId val="55747712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64134528"/>
+        <c:axId val="55680384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64201856"/>
+        <c:crossAx val="55747712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64201856"/>
+        <c:axId val="55747712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12921,7 +13848,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64134528"/>
+        <c:crossAx val="55680384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12934,7 +13861,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13353,11 +14280,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64217856"/>
-        <c:axId val="64219776"/>
+        <c:axId val="55763712"/>
+        <c:axId val="55765632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64217856"/>
+        <c:axId val="55763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13384,12 +14311,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64219776"/>
+        <c:crossAx val="55765632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64219776"/>
+        <c:axId val="55765632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13416,7 +14343,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64217856"/>
+        <c:crossAx val="55763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13425,7 +14352,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -13869,25 +14796,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64285696"/>
-        <c:axId val="64295680"/>
+        <c:axId val="55831552"/>
+        <c:axId val="55841536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64285696"/>
+        <c:axId val="55831552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64295680"/>
+        <c:crossAx val="55841536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64295680"/>
+        <c:axId val="55841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13901,7 +14828,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64285696"/>
+        <c:crossAx val="55831552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13914,7 +14841,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14308,6 +15235,41 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15148,8 +16110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16967,8 +17929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17695,7 +18657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -18422,8 +19384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -30677,4 +31639,916 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0.61</v>
+      </c>
+      <c r="B2">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.61</v>
+      </c>
+      <c r="B3">
+        <v>1.42</v>
+      </c>
+      <c r="C3">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0.61</v>
+      </c>
+      <c r="B4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.87</v>
+      </c>
+      <c r="D4">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.61</v>
+      </c>
+      <c r="B5">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0.61</v>
+      </c>
+      <c r="B6">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B7">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.766</v>
+      </c>
+      <c r="D7">
+        <v>1.4710000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0.61</v>
+      </c>
+      <c r="B8">
+        <v>1.367</v>
+      </c>
+      <c r="C8">
+        <v>1.371</v>
+      </c>
+      <c r="D8">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B9">
+        <v>1.232</v>
+      </c>
+      <c r="C9">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0.61</v>
+      </c>
+      <c r="B10">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="C10">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.3029999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0.61</v>
+      </c>
+      <c r="B11">
+        <v>0.106</v>
+      </c>
+      <c r="C11">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B12">
+        <v>2.702</v>
+      </c>
+      <c r="C12">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="D12">
+        <v>2.1019999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0.61</v>
+      </c>
+      <c r="B13">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D13">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0.61</v>
+      </c>
+      <c r="B14">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D14">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B15">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="D15">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B16">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="D16">
+        <v>2.5459999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0.61</v>
+      </c>
+      <c r="B17">
+        <v>0.218</v>
+      </c>
+      <c r="C17">
+        <v>0.997</v>
+      </c>
+      <c r="D17">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="B18">
+        <v>8.11</v>
+      </c>
+      <c r="C18">
+        <v>8.8729999999999993</v>
+      </c>
+      <c r="D18">
+        <v>8.3089999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10.973000000000001</v>
+      </c>
+      <c r="B19">
+        <v>11.877000000000001</v>
+      </c>
+      <c r="C19">
+        <v>12.862</v>
+      </c>
+      <c r="D19">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>3.048</v>
+      </c>
+      <c r="B20">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="C20">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="D20">
+        <v>2.7789999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1.829</v>
+      </c>
+      <c r="B21">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B23">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="C23">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="D23">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B24">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.1539999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3.048</v>
+      </c>
+      <c r="B25">
+        <v>2.91</v>
+      </c>
+      <c r="C25">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="D25">
+        <v>2.8439999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="B26">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="C26">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="D26">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B27">
+        <v>1.728</v>
+      </c>
+      <c r="C27">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="D27">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="B28">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="C28">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="D28">
+        <v>5.8040000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>15.24</v>
+      </c>
+      <c r="B29">
+        <v>10.138999999999999</v>
+      </c>
+      <c r="C29">
+        <v>11.074</v>
+      </c>
+      <c r="D29">
+        <v>10.452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="B30">
+        <v>6.4740000000000002</v>
+      </c>
+      <c r="C30">
+        <v>6.577</v>
+      </c>
+      <c r="D30">
+        <v>6.1660000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>3.048</v>
+      </c>
+      <c r="B31">
+        <v>1.726</v>
+      </c>
+      <c r="C31">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="D31">
+        <v>2.4460000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B32">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.1419999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1.829</v>
+      </c>
+      <c r="B33">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="C33">
+        <v>2.556</v>
+      </c>
+      <c r="D33">
+        <v>2.3119999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B34">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="C34">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.5820000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B35">
+        <v>2.87</v>
+      </c>
+      <c r="C35">
+        <v>2.194</v>
+      </c>
+      <c r="D35">
+        <v>2.0990000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>3.048</v>
+      </c>
+      <c r="B36">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="C36">
+        <v>3.766</v>
+      </c>
+      <c r="D36">
+        <v>3.5640000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>0.61</v>
+      </c>
+      <c r="B37">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="C37">
+        <v>1.476</v>
+      </c>
+      <c r="D37">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B38">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="C38">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="D38">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="B39">
+        <v>10.897</v>
+      </c>
+      <c r="C39">
+        <v>11.823</v>
+      </c>
+      <c r="D39">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>0.61</v>
+      </c>
+      <c r="B40">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C40">
+        <v>1.887</v>
+      </c>
+      <c r="D40">
+        <v>1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>3.048</v>
+      </c>
+      <c r="B41">
+        <v>1.55</v>
+      </c>
+      <c r="C41">
+        <v>2.137</v>
+      </c>
+      <c r="D41">
+        <v>2.0830000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>5.4859999999999998</v>
+      </c>
+      <c r="B42">
+        <v>5.1929999999999996</v>
+      </c>
+      <c r="C42">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="D42">
+        <v>5.3479999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1.829</v>
+      </c>
+      <c r="B43">
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="C43">
+        <v>2.399</v>
+      </c>
+      <c r="D43">
+        <v>2.3839999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>0.61</v>
+      </c>
+      <c r="B44">
+        <v>2.222</v>
+      </c>
+      <c r="C44">
+        <v>2.097</v>
+      </c>
+      <c r="D44">
+        <v>1.9019999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1.829</v>
+      </c>
+      <c r="B45">
+        <v>0.64</v>
+      </c>
+      <c r="C45">
+        <v>1.617</v>
+      </c>
+      <c r="D45">
+        <v>1.681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>3.6579999999999999</v>
+      </c>
+      <c r="B46">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="C46">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="D46">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>3.6579999999999999</v>
+      </c>
+      <c r="B47">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="C47">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="D47">
+        <v>4.1269999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B48">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="C48">
+        <v>3.069</v>
+      </c>
+      <c r="D48">
+        <v>2.8239999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="B49">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="C49">
+        <v>6.9610000000000003</v>
+      </c>
+      <c r="D49">
+        <v>6.5309999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>3.048</v>
+      </c>
+      <c r="B50">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="C50">
+        <v>4.0670000000000002</v>
+      </c>
+      <c r="D50">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1.829</v>
+      </c>
+      <c r="B51">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="C51">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="D51">
+        <v>2.9359999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="C52">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D52">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="B53">
+        <v>5.202</v>
+      </c>
+      <c r="C53">
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="D53">
+        <v>4.585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>4.2670000000000003</v>
+      </c>
+      <c r="B54">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C54">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="D54">
+        <v>3.3050000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B55">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C55">
+        <v>1.222</v>
+      </c>
+      <c r="D55">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="B56">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="C56">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="D56">
+        <v>4.6749999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>0.61</v>
+      </c>
+      <c r="B57">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="C57">
+        <v>1.49</v>
+      </c>
+      <c r="D57">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>0.61</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="D58">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C59">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="D59">
+        <v>1.3140000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1.829</v>
+      </c>
+      <c r="B60">
+        <v>0.188</v>
+      </c>
+      <c r="C60">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D60">
+        <v>1.381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="B61">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="C61">
+        <v>8.234</v>
+      </c>
+      <c r="D61">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>0.61</v>
+      </c>
+      <c r="B62">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C62">
+        <v>1.625</v>
+      </c>
+      <c r="D62">
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C63">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D63">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1.829</v>
+      </c>
+      <c r="B64">
+        <v>3.39</v>
+      </c>
+      <c r="C64">
+        <v>2.851</v>
+      </c>
+      <c r="D64">
+        <v>2.746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>